--- a/nodes_source_analyses/industry/industry_chp_turbine_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_turbine_gas_power_fuelmix.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="25420" windowHeight="14900" tabRatio="762"/>
+    <workbookView xWindow="1900" yWindow="460" windowWidth="25420" windowHeight="14900" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -452,9 +460,6 @@
     <t>Costs</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -673,17 +678,21 @@
       <t xml:space="preserve"> plant.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -876,11 +885,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1529,8 +1533,8 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1539,38 +1543,38 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1585,10 +1589,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1600,21 +1604,21 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1646,7 +1650,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1657,7 +1661,7 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1676,11 +1680,11 @@
     <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1701,7 +1705,7 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1709,16 +1713,16 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1735,39 +1739,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2011,80 +2015,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3975100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2204,7 +2143,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2641,43 +2580,43 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="42.125" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="4.85546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1">
+    <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>93</v>
@@ -2686,7 +2625,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -2695,29 +2634,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="107"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="108"/>
       <c r="C10" s="109"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="108" t="s">
         <v>79</v>
@@ -2726,33 +2665,33 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="108"/>
       <c r="C12" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="108"/>
       <c r="C13" s="111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="108"/>
       <c r="C14" s="109" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="108"/>
       <c r="C15" s="109"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="108" t="s">
         <v>84</v>
@@ -2761,49 +2700,49 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="108"/>
       <c r="C17" s="113" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="108"/>
       <c r="C18" s="114" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="108"/>
       <c r="C19" s="115" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="116"/>
       <c r="C20" s="117" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="116"/>
       <c r="C21" s="118" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="116"/>
       <c r="C22" s="119" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="116"/>
       <c r="C23" s="120" t="s">
         <v>92</v>
@@ -2812,41 +2751,36 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="46" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="45" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="49.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="4"/>
+    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -2856,9 +2790,9 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="169" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C2" s="170"/>
       <c r="D2" s="170"/>
@@ -2868,7 +2802,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="172"/>
       <c r="C3" s="173"/>
       <c r="D3" s="173"/>
@@ -2878,7 +2812,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="172"/>
       <c r="C4" s="173"/>
       <c r="D4" s="173"/>
@@ -2888,7 +2822,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="175"/>
       <c r="C5" s="176"/>
       <c r="D5" s="176"/>
@@ -2898,7 +2832,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -2908,7 +2842,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2919,7 +2853,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="132"/>
       <c r="C8" s="24" t="s">
         <v>35</v>
@@ -2940,7 +2874,7 @@
       </c>
       <c r="J8" s="134"/>
     </row>
-    <row r="9" spans="2:11" s="5" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
       <c r="C9" s="23"/>
       <c r="D9" s="45"/>
@@ -2951,7 +2885,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
         <v>95</v>
@@ -2964,7 +2898,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="158" t="s">
         <v>36</v>
@@ -2984,10 +2918,10 @@
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>5</v>
@@ -3003,7 +2937,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="48" t="s">
         <v>38</v>
@@ -3023,7 +2957,7 @@
       <c r="J13" s="138"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="48" t="s">
         <v>39</v>
@@ -3043,7 +2977,7 @@
       <c r="J14" s="138"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
       <c r="C15" s="48" t="s">
         <v>41</v>
@@ -3063,7 +2997,7 @@
       <c r="J15" s="138"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="48" t="s">
         <v>11</v>
@@ -3083,7 +3017,7 @@
       <c r="J16" s="138"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="47" t="s">
         <v>44</v>
@@ -3103,7 +3037,7 @@
       <c r="J17" s="139"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32"/>
       <c r="C18" s="48" t="s">
         <v>45</v>
@@ -3123,13 +3057,13 @@
       <c r="J18" s="139"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="48" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="53">
         <f>'Research data'!H6</f>
@@ -3145,13 +3079,13 @@
       </c>
       <c r="J19" s="138"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="48" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="53">
         <v>49.736840000000001</v>
@@ -3166,7 +3100,7 @@
       </c>
       <c r="J20" s="138"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="32"/>
       <c r="C21" s="135"/>
       <c r="D21" s="136"/>
@@ -3177,10 +3111,10 @@
       <c r="I21" s="30"/>
       <c r="J21" s="138"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="136"/>
       <c r="E22" s="130"/>
@@ -3190,7 +3124,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="138"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="48" t="s">
         <v>48</v>
@@ -3212,7 +3146,7 @@
       </c>
       <c r="J23" s="140"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="48" t="s">
         <v>49</v>
@@ -3233,7 +3167,7 @@
       </c>
       <c r="J24" s="140"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="48" t="s">
         <v>13</v>
@@ -3254,7 +3188,7 @@
       </c>
       <c r="J25" s="138"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="48" t="s">
         <v>50</v>
@@ -3275,7 +3209,7 @@
       </c>
       <c r="J26" s="138"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
       <c r="C27" s="48" t="s">
         <v>51</v>
@@ -3293,11 +3227,11 @@
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J27" s="138"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
       <c r="C28" s="48" t="s">
         <v>52</v>
@@ -3315,11 +3249,11 @@
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J28" s="138"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
       <c r="C29" s="48" t="s">
         <v>53</v>
@@ -3340,7 +3274,7 @@
       </c>
       <c r="J29" s="138"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
       <c r="C30" s="48" t="s">
         <v>56</v>
@@ -3361,7 +3295,7 @@
       </c>
       <c r="J30" s="138"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="32"/>
       <c r="C31" s="48" t="s">
         <v>43</v>
@@ -3380,7 +3314,7 @@
       </c>
       <c r="J31" s="138"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="32"/>
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
@@ -3391,7 +3325,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="138"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
       <c r="C33" s="23" t="s">
         <v>8</v>
@@ -3404,7 +3338,7 @@
       <c r="I33" s="30"/>
       <c r="J33" s="138"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
       <c r="C34" s="48" t="s">
         <v>42</v>
@@ -3422,11 +3356,11 @@
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J34" s="138"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
       <c r="C35" s="48" t="s">
         <v>54</v>
@@ -3444,11 +3378,11 @@
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="153" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J35" s="138"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
       <c r="C36" s="48" t="s">
         <v>55</v>
@@ -3466,11 +3400,11 @@
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="153" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J36" s="138"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
       <c r="C37" s="48" t="s">
         <v>40</v>
@@ -3489,7 +3423,7 @@
       </c>
       <c r="J37" s="138"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
       <c r="C38" s="48" t="s">
         <v>57</v>
@@ -3508,7 +3442,7 @@
       </c>
       <c r="J38" s="138"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
       <c r="C39" s="48" t="s">
         <v>14</v>
@@ -3527,7 +3461,7 @@
       </c>
       <c r="J39" s="138"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
       <c r="C40" s="48" t="s">
         <v>58</v>
@@ -3546,7 +3480,7 @@
       </c>
       <c r="J40" s="138"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="32"/>
       <c r="C41" s="48" t="s">
         <v>60</v>
@@ -3565,7 +3499,7 @@
       </c>
       <c r="J41" s="138"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="32"/>
       <c r="C42" s="48" t="s">
         <v>59</v>
@@ -3584,7 +3518,7 @@
       </c>
       <c r="J42" s="138"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="34"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -3595,7 +3529,7 @@
       <c r="I43" s="35"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
@@ -3605,7 +3539,7 @@
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -3615,49 +3549,49 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -3667,7 +3601,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -3677,7 +3611,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -3687,7 +3621,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -3697,7 +3631,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3707,7 +3641,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -3717,7 +3651,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -3727,7 +3661,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -3737,7 +3671,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -3747,7 +3681,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -3757,7 +3691,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -3767,7 +3701,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -3777,7 +3711,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -3787,7 +3721,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -3803,43 +3737,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3975100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3854,29 +3751,29 @@
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="54" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="54" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="54" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="54" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="54" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="54" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="79" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="79" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="79" customWidth="1"/>
-    <col min="13" max="13" width="2.875" style="79" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="54" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="54" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="54" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="79" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="79" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="79" customWidth="1"/>
     <col min="14" max="14" width="10" style="79" customWidth="1"/>
-    <col min="15" max="15" width="2.875" style="54" customWidth="1"/>
-    <col min="16" max="16" width="78.625" style="54" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="54"/>
+    <col min="15" max="15" width="2.85546875" style="54" customWidth="1"/>
+    <col min="16" max="16" width="78.5703125" style="54" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16" thickBot="1"/>
-    <row r="2" spans="2:16">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -3893,7 +3790,7 @@
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
     </row>
-    <row r="3" spans="2:16" s="38" customFormat="1">
+    <row r="3" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37"/>
       <c r="C3" s="125" t="s">
         <v>101</v>
@@ -3913,18 +3810,18 @@
       </c>
       <c r="K3" s="126"/>
       <c r="L3" s="126" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M3" s="126"/>
       <c r="N3" s="126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O3" s="125"/>
       <c r="P3" s="125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="57"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
@@ -3941,7 +3838,7 @@
       <c r="O4" s="127"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="2:16" ht="16" thickBot="1">
+    <row r="5" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="57"/>
       <c r="C5" s="46" t="s">
         <v>95</v>
@@ -3960,7 +3857,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="83"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1">
+    <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="57"/>
       <c r="C6" s="84" t="s">
         <v>32</v>
@@ -3985,10 +3882,10 @@
       <c r="M6" s="88"/>
       <c r="P6" s="83"/>
     </row>
-    <row r="7" spans="2:16" ht="16" thickBot="1">
+    <row r="7" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="57"/>
       <c r="C7" s="89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
@@ -4010,7 +3907,7 @@
       <c r="M7" s="88"/>
       <c r="P7" s="83"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="57"/>
       <c r="C8" s="93"/>
       <c r="D8" s="93"/>
@@ -4025,7 +3922,7 @@
       <c r="M8" s="91"/>
       <c r="P8" s="83"/>
     </row>
-    <row r="9" spans="2:16" ht="16" thickBot="1">
+    <row r="9" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="57"/>
       <c r="C9" s="46" t="s">
         <v>8</v>
@@ -4043,7 +3940,7 @@
       <c r="N9" s="94"/>
       <c r="P9" s="83"/>
     </row>
-    <row r="10" spans="2:16" ht="16" thickBot="1">
+    <row r="10" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="57"/>
       <c r="C10" s="89" t="s">
         <v>17</v>
@@ -4067,10 +3964,10 @@
         <v>0.1</v>
       </c>
       <c r="P10" s="148" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="16" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="57"/>
       <c r="C11" s="95" t="s">
         <v>1</v>
@@ -4098,7 +3995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="16" thickBot="1">
+    <row r="12" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="57"/>
       <c r="C12" s="97" t="s">
         <v>6</v>
@@ -4123,10 +4020,10 @@
       <c r="M12" s="91"/>
       <c r="N12" s="82"/>
       <c r="P12" s="146" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="57"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -4142,7 +4039,7 @@
       <c r="N13" s="94"/>
       <c r="P13" s="83"/>
     </row>
-    <row r="14" spans="2:16" ht="16" thickBot="1">
+    <row r="14" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="57"/>
       <c r="C14" s="21" t="s">
         <v>102</v>
@@ -4160,10 +4057,10 @@
       <c r="N14" s="94"/>
       <c r="P14" s="142"/>
     </row>
-    <row r="15" spans="2:16" ht="16" thickBot="1">
+    <row r="15" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="57"/>
       <c r="C15" s="131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -4185,13 +4082,13 @@
       <c r="M15" s="91"/>
       <c r="N15" s="94"/>
       <c r="P15" s="166" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="16" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="57"/>
       <c r="C16" s="131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
@@ -4214,10 +4111,10 @@
       <c r="N16" s="94"/>
       <c r="P16" s="166"/>
     </row>
-    <row r="17" spans="2:16" ht="16" thickBot="1">
+    <row r="17" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="57"/>
       <c r="C17" s="147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="100"/>
       <c r="E17" s="100"/>
@@ -4239,13 +4136,13 @@
       <c r="M17" s="91"/>
       <c r="N17" s="94"/>
       <c r="P17" s="166" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="16" thickBot="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="57"/>
       <c r="C18" s="144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
@@ -4267,10 +4164,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="16" thickBot="1">
+    <row r="19" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="57"/>
       <c r="C19" s="131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -4288,10 +4185,10 @@
       <c r="M19" s="91"/>
       <c r="N19" s="91"/>
       <c r="P19" s="158" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="16" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="57"/>
       <c r="C20" s="143" t="s">
         <v>68</v>
@@ -4313,10 +4210,10 @@
       <c r="M20" s="91"/>
       <c r="N20" s="91"/>
       <c r="P20" s="158" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="16" thickBot="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
       <c r="C21" s="131" t="s">
         <v>68</v>
@@ -4338,10 +4235,10 @@
       <c r="M21" s="91"/>
       <c r="N21" s="91"/>
       <c r="P21" s="158" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="16" thickBot="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="57"/>
       <c r="C22" s="131" t="s">
         <v>68</v>
@@ -4366,13 +4263,13 @@
       <c r="M22" s="91"/>
       <c r="N22" s="91"/>
       <c r="P22" s="168" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="16" thickBot="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="57"/>
       <c r="C23" s="131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="83"/>
       <c r="E23" s="83"/>
@@ -4390,13 +4287,13 @@
       <c r="M23" s="94"/>
       <c r="N23" s="94"/>
       <c r="P23" s="167" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="16" thickBot="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="57"/>
       <c r="C24" s="154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="83"/>
       <c r="E24" s="83"/>
@@ -4415,7 +4312,7 @@
       <c r="M24" s="94"/>
       <c r="N24" s="94"/>
       <c r="P24" s="167" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4425,11 +4322,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4444,21 +4336,21 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="33.25" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="59" customWidth="1"/>
-    <col min="6" max="8" width="12.125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="59" customWidth="1"/>
+    <col min="6" max="8" width="12.140625" style="59" customWidth="1"/>
     <col min="9" max="9" width="39" style="60" customWidth="1"/>
-    <col min="10" max="10" width="130.125" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="59"/>
+    <col min="10" max="10" width="130.140625" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="61"/>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -4469,7 +4361,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="62"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="64"/>
       <c r="C3" s="65" t="s">
         <v>24</v>
@@ -4482,7 +4374,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="64"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -4493,7 +4385,7 @@
       <c r="I4" s="68"/>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="69"/>
       <c r="C5" s="70" t="s">
         <v>33</v>
@@ -4508,19 +4400,19 @@
         <v>34</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="70" t="s">
         <v>76</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5" s="70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -4531,11 +4423,11 @@
       <c r="I6" s="66"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="64"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>25</v>
@@ -4548,13 +4440,13 @@
       </c>
       <c r="H7" s="75"/>
       <c r="I7" s="76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="64"/>
       <c r="C8" s="150" t="s">
         <v>1</v>
@@ -4567,7 +4459,7 @@
       <c r="I8" s="76"/>
       <c r="J8" s="72"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="64"/>
       <c r="C9" s="151" t="s">
         <v>6</v>
@@ -4580,7 +4472,7 @@
       <c r="I9" s="76"/>
       <c r="J9" s="72"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="64"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72" t="s">
@@ -4597,11 +4489,11 @@
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="77"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="64"/>
       <c r="C11" s="73" t="s">
         <v>77</v>
@@ -4614,10 +4506,10 @@
       <c r="I11" s="68"/>
       <c r="J11" s="72"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="64"/>
       <c r="C12" s="150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="67"/>
@@ -4627,10 +4519,10 @@
       <c r="I12" s="68"/>
       <c r="J12" s="72"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="64"/>
       <c r="C13" s="150" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="67"/>
@@ -4640,7 +4532,7 @@
       <c r="I13" s="68"/>
       <c r="J13" s="72"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="64"/>
       <c r="C14" s="73"/>
       <c r="D14" s="72"/>
@@ -4651,7 +4543,7 @@
       <c r="I14" s="68"/>
       <c r="J14" s="72"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="64"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72" t="s">
@@ -4664,18 +4556,18 @@
         <v>2013</v>
       </c>
       <c r="G15" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
       <c r="J15" s="77" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="64"/>
       <c r="C16" s="150" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="67"/>
@@ -4685,10 +4577,10 @@
       <c r="I16" s="68"/>
       <c r="J16" s="72"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="64"/>
       <c r="C17" s="150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="72"/>
@@ -4698,7 +4590,7 @@
       <c r="I17" s="78"/>
       <c r="J17" s="72"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="64"/>
       <c r="C18" s="72"/>
       <c r="D18" s="67"/>
@@ -4709,7 +4601,7 @@
       <c r="I18" s="78"/>
       <c r="J18" s="72"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="152"/>
       <c r="C19" s="72"/>
       <c r="D19" s="67" t="s">
@@ -4721,22 +4613,22 @@
       <c r="F19" s="149"/>
       <c r="G19" s="149"/>
       <c r="H19" s="72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I19" s="78"/>
       <c r="J19" s="77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="152" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="152" t="s">
+      <c r="C20" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="150" t="s">
-        <v>122</v>
-      </c>
       <c r="D20" s="67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="72"/>
       <c r="F20" s="149"/>
@@ -4754,11 +4646,6 @@
   <ignoredErrors>
     <ignoredError sqref="F7 F10:G10 G15" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4770,15 +4657,15 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="157" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="157" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="157"/>
+    <col min="1" max="1" width="5.85546875" style="157" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="157" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="157"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="159"/>
       <c r="C2" s="160"/>
       <c r="D2" s="160"/>
@@ -4793,13 +4680,13 @@
       <c r="M2" s="160"/>
       <c r="N2" s="160"/>
     </row>
-    <row r="3" spans="2:14" s="38" customFormat="1">
+    <row r="3" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="132"/>
       <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -4812,7 +4699,7 @@
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="161"/>
       <c r="C4" s="162"/>
       <c r="D4" s="162"/>
@@ -4827,7 +4714,7 @@
       <c r="M4" s="162"/>
       <c r="N4" s="162"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="161"/>
       <c r="C5" s="162"/>
       <c r="D5" s="162"/>
@@ -4842,7 +4729,7 @@
       <c r="M5" s="162"/>
       <c r="N5" s="162"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="161"/>
       <c r="C6" s="162" t="s">
         <v>63</v>
@@ -4859,7 +4746,7 @@
       <c r="M6" s="162"/>
       <c r="N6" s="162"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="161"/>
       <c r="C7" s="162"/>
       <c r="D7" s="162"/>
@@ -4874,7 +4761,7 @@
       <c r="M7" s="162"/>
       <c r="N7" s="162"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="161"/>
       <c r="C8" s="162"/>
       <c r="D8" s="162"/>
@@ -4889,7 +4776,7 @@
       <c r="M8" s="162"/>
       <c r="N8" s="162"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="161"/>
       <c r="C9" s="162"/>
       <c r="D9" s="162"/>
@@ -4904,7 +4791,7 @@
       <c r="M9" s="162"/>
       <c r="N9" s="162"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="161"/>
       <c r="C10" s="162"/>
       <c r="D10" s="162"/>
@@ -4919,7 +4806,7 @@
       <c r="M10" s="162"/>
       <c r="N10" s="162"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="161"/>
       <c r="C11" s="162"/>
       <c r="D11" s="162"/>
@@ -4934,14 +4821,14 @@
       <c r="M11" s="162"/>
       <c r="N11" s="162"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="161"/>
       <c r="C12" s="162"/>
       <c r="D12" s="162">
         <v>45000</v>
       </c>
       <c r="E12" s="162" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="162"/>
       <c r="G12" s="162"/>
@@ -4953,14 +4840,14 @@
       <c r="M12" s="162"/>
       <c r="N12" s="162"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="161"/>
       <c r="C13" s="162"/>
       <c r="D13" s="162">
         <v>850</v>
       </c>
       <c r="E13" s="162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="162"/>
       <c r="G13" s="162"/>
@@ -4972,7 +4859,7 @@
       <c r="M13" s="162"/>
       <c r="N13" s="162"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="161"/>
       <c r="C14" s="162"/>
       <c r="D14" s="162">
@@ -4991,7 +4878,7 @@
       <c r="M14" s="162"/>
       <c r="N14" s="162"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="161"/>
       <c r="C15" s="162"/>
       <c r="D15" s="162"/>
@@ -5006,7 +4893,7 @@
       <c r="M15" s="162"/>
       <c r="N15" s="162"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="161"/>
       <c r="C16" s="162"/>
       <c r="D16" s="162"/>
@@ -5021,7 +4908,7 @@
       <c r="M16" s="162"/>
       <c r="N16" s="162"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="161"/>
       <c r="C17" s="162"/>
       <c r="D17" s="162"/>
@@ -5036,7 +4923,7 @@
       <c r="M17" s="162"/>
       <c r="N17" s="162"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="161"/>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
@@ -5051,7 +4938,7 @@
       <c r="M18" s="162"/>
       <c r="N18" s="162"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="161"/>
       <c r="C19" s="162"/>
       <c r="D19" s="162"/>
@@ -5066,7 +4953,7 @@
       <c r="M19" s="162"/>
       <c r="N19" s="162"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="161"/>
       <c r="C20" s="162"/>
       <c r="D20" s="162"/>
@@ -5081,7 +4968,7 @@
       <c r="M20" s="162"/>
       <c r="N20" s="162"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="161"/>
       <c r="C21" s="162"/>
       <c r="D21" s="162"/>
@@ -5096,7 +4983,7 @@
       <c r="M21" s="162"/>
       <c r="N21" s="162"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="161"/>
       <c r="C22" s="162"/>
       <c r="D22" s="162"/>
@@ -5111,7 +4998,7 @@
       <c r="M22" s="162"/>
       <c r="N22" s="162"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="161"/>
       <c r="C23" s="162"/>
       <c r="D23" s="162"/>
@@ -5126,7 +5013,7 @@
       <c r="M23" s="162"/>
       <c r="N23" s="162"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="161"/>
       <c r="C24" s="162"/>
       <c r="D24" s="162"/>
@@ -5141,7 +5028,7 @@
       <c r="M24" s="162"/>
       <c r="N24" s="162"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="161"/>
       <c r="C25" s="162"/>
       <c r="D25" s="162"/>
@@ -5156,7 +5043,7 @@
       <c r="M25" s="162"/>
       <c r="N25" s="162"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="161"/>
       <c r="C26" s="162"/>
       <c r="D26" s="162"/>
@@ -5171,7 +5058,7 @@
       <c r="M26" s="162"/>
       <c r="N26" s="162"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="161"/>
       <c r="C27" s="162"/>
       <c r="D27" s="162"/>
@@ -5186,7 +5073,7 @@
       <c r="M27" s="162"/>
       <c r="N27" s="162"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="161"/>
       <c r="C28" s="162"/>
       <c r="D28" s="162"/>
@@ -5201,7 +5088,7 @@
       <c r="M28" s="162"/>
       <c r="N28" s="162"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="161"/>
       <c r="C29" s="162"/>
       <c r="D29" s="162"/>
@@ -5216,7 +5103,7 @@
       <c r="M29" s="162"/>
       <c r="N29" s="162"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="161"/>
       <c r="C30" s="162"/>
       <c r="D30" s="162"/>
@@ -5231,7 +5118,7 @@
       <c r="M30" s="162"/>
       <c r="N30" s="162"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="161"/>
       <c r="C31" s="162"/>
       <c r="D31" s="162"/>
@@ -5246,16 +5133,16 @@
       <c r="M31" s="162"/>
       <c r="N31" s="162"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="161"/>
       <c r="C32" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="162">
         <v>1260000</v>
       </c>
       <c r="E32" s="162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="162"/>
       <c r="G32" s="162"/>
@@ -5267,16 +5154,16 @@
       <c r="M32" s="162"/>
       <c r="N32" s="162"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="161"/>
       <c r="C33" s="165" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="162">
         <v>3.5</v>
       </c>
       <c r="E33" s="165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33" s="162"/>
       <c r="G33" s="162"/>
@@ -5288,7 +5175,7 @@
       <c r="M33" s="162"/>
       <c r="N33" s="162"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="161"/>
       <c r="C34" s="162"/>
       <c r="D34" s="162"/>
@@ -5303,7 +5190,7 @@
       <c r="M34" s="162"/>
       <c r="N34" s="162"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="161"/>
       <c r="C35" s="162"/>
       <c r="D35" s="162"/>
@@ -5318,7 +5205,7 @@
       <c r="M35" s="162"/>
       <c r="N35" s="162"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="161"/>
       <c r="C36" s="162"/>
       <c r="D36" s="162"/>
@@ -5333,7 +5220,7 @@
       <c r="M36" s="162"/>
       <c r="N36" s="162"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="161"/>
       <c r="C37" s="162"/>
       <c r="D37" s="162"/>
@@ -5348,7 +5235,7 @@
       <c r="M37" s="162"/>
       <c r="N37" s="162"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="161"/>
       <c r="C38" s="162"/>
       <c r="D38" s="162"/>
@@ -5363,7 +5250,7 @@
       <c r="M38" s="162"/>
       <c r="N38" s="162"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="161"/>
       <c r="C39" s="162"/>
       <c r="D39" s="162"/>
@@ -5378,7 +5265,7 @@
       <c r="M39" s="162"/>
       <c r="N39" s="162"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="161"/>
       <c r="C40" s="162"/>
       <c r="D40" s="162"/>
@@ -5393,7 +5280,7 @@
       <c r="M40" s="162"/>
       <c r="N40" s="162"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="161"/>
       <c r="C41" s="162"/>
       <c r="D41" s="162"/>
@@ -5408,7 +5295,7 @@
       <c r="M41" s="162"/>
       <c r="N41" s="162"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="161"/>
       <c r="C42" s="162"/>
       <c r="D42" s="162"/>
@@ -5423,7 +5310,7 @@
       <c r="M42" s="162"/>
       <c r="N42" s="162"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="161"/>
       <c r="C43" s="162"/>
       <c r="D43" s="162"/>
@@ -5438,10 +5325,10 @@
       <c r="M43" s="162"/>
       <c r="N43" s="162"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="161"/>
       <c r="C44" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="162"/>
       <c r="E44" s="162"/>
@@ -5455,10 +5342,10 @@
       <c r="M44" s="162"/>
       <c r="N44" s="162"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="161"/>
       <c r="C45" s="162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="162"/>
       <c r="E45" s="162"/>
@@ -5472,7 +5359,7 @@
       <c r="M45" s="162"/>
       <c r="N45" s="162"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="161"/>
       <c r="C46" s="162"/>
       <c r="D46" s="162"/>
@@ -5487,7 +5374,7 @@
       <c r="M46" s="162"/>
       <c r="N46" s="162"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="161"/>
       <c r="C47" s="162"/>
       <c r="D47" s="162"/>
@@ -5502,7 +5389,7 @@
       <c r="M47" s="162"/>
       <c r="N47" s="162"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="161"/>
       <c r="C48" s="162"/>
       <c r="D48" s="162"/>
@@ -5517,7 +5404,7 @@
       <c r="M48" s="162"/>
       <c r="N48" s="162"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="161"/>
       <c r="C49" s="162"/>
       <c r="D49" s="162"/>
@@ -5532,14 +5419,14 @@
       <c r="M49" s="162"/>
       <c r="N49" s="162"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="161"/>
       <c r="C50" s="162"/>
       <c r="D50" s="162">
         <v>18</v>
       </c>
       <c r="E50" s="162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F50" s="162"/>
       <c r="G50" s="162"/>
@@ -5551,14 +5438,14 @@
       <c r="M50" s="162"/>
       <c r="N50" s="162"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="161"/>
       <c r="C51" s="162"/>
       <c r="D51" s="162">
         <v>25</v>
       </c>
       <c r="E51" s="162" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" s="162"/>
       <c r="G51" s="162"/>
@@ -5570,7 +5457,7 @@
       <c r="M51" s="162"/>
       <c r="N51" s="162"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="161"/>
       <c r="C52" s="162"/>
       <c r="D52" s="162"/>
@@ -5585,7 +5472,7 @@
       <c r="M52" s="162"/>
       <c r="N52" s="162"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="161"/>
       <c r="C53" s="162"/>
       <c r="D53" s="162"/>
@@ -5600,7 +5487,7 @@
       <c r="M53" s="162"/>
       <c r="N53" s="162"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="161"/>
       <c r="C54" s="162"/>
       <c r="D54" s="162"/>
@@ -5618,10 +5505,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/industry/industry_chp_turbine_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_turbine_gas_power_fuelmix.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B97DC8-4AFB-0E45-A358-D5183F8AF847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="460" windowWidth="25420" windowHeight="14900" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="1900" yWindow="460" windowWidth="25420" windowHeight="14900" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
   <si>
     <t>Source</t>
   </si>
@@ -682,17 +689,20 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -863,6 +873,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,6 +881,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -877,6 +889,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,6 +897,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,17 +905,20 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -915,7 +932,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1465,7 +1489,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1774,6 +1798,7 @@
     <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="236">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2019,6 +2044,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2040,7 +2068,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2078,7 +2112,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2116,7 +2156,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2576,13 +2622,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="43" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="30" customWidth="1"/>
@@ -2590,24 +2636,24 @@
     <col min="4" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="41" customFormat="1">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
@@ -2616,7 +2662,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>93</v>
@@ -2625,7 +2671,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -2634,29 +2680,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="107"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7"/>
       <c r="B10" s="108"/>
       <c r="C10" s="109"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="108" t="s">
         <v>79</v>
@@ -2665,33 +2711,33 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="108"/>
       <c r="C12" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="108"/>
       <c r="C13" s="111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="7"/>
       <c r="B14" s="108"/>
       <c r="C14" s="109" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="108"/>
       <c r="C15" s="109"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="108" t="s">
         <v>84</v>
@@ -2700,49 +2746,49 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="108"/>
       <c r="C17" s="113" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="108"/>
       <c r="C18" s="114" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="108"/>
       <c r="C19" s="115" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="116"/>
       <c r="C20" s="117" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="116"/>
       <c r="C21" s="118" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="116"/>
       <c r="C22" s="119" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="116"/>
       <c r="C23" s="120" t="s">
         <v>92</v>
@@ -2755,17 +2801,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
@@ -2780,7 +2826,7 @@
     <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -2790,7 +2836,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="169" t="s">
         <v>151</v>
       </c>
@@ -2802,7 +2848,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="172"/>
       <c r="C3" s="173"/>
       <c r="D3" s="173"/>
@@ -2812,7 +2858,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="172"/>
       <c r="C4" s="173"/>
       <c r="D4" s="173"/>
@@ -2822,7 +2868,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="175"/>
       <c r="C5" s="176"/>
       <c r="D5" s="176"/>
@@ -2832,7 +2878,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -2842,7 +2888,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2853,7 +2899,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="18">
       <c r="B8" s="132"/>
       <c r="C8" s="24" t="s">
         <v>35</v>
@@ -2874,7 +2920,7 @@
       </c>
       <c r="J8" s="134"/>
     </row>
-    <row r="9" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" s="5" customFormat="1" ht="18">
       <c r="B9" s="37"/>
       <c r="C9" s="23"/>
       <c r="D9" s="45"/>
@@ -2885,7 +2931,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
         <v>95</v>
@@ -2898,7 +2944,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="158" t="s">
         <v>36</v>
@@ -2918,7 +2964,7 @@
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="141" t="s">
         <v>110</v>
@@ -2937,7 +2983,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="32"/>
       <c r="C13" s="48" t="s">
         <v>38</v>
@@ -2957,7 +3003,7 @@
       <c r="J13" s="138"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="32"/>
       <c r="C14" s="48" t="s">
         <v>39</v>
@@ -2977,7 +3023,7 @@
       <c r="J14" s="138"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="32"/>
       <c r="C15" s="48" t="s">
         <v>41</v>
@@ -2997,7 +3043,7 @@
       <c r="J15" s="138"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="32"/>
       <c r="C16" s="48" t="s">
         <v>11</v>
@@ -3017,7 +3063,7 @@
       <c r="J16" s="138"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B17" s="32"/>
       <c r="C17" s="47" t="s">
         <v>44</v>
@@ -3037,7 +3083,7 @@
       <c r="J17" s="139"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B18" s="32"/>
       <c r="C18" s="48" t="s">
         <v>45</v>
@@ -3057,7 +3103,7 @@
       <c r="J18" s="139"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="32"/>
       <c r="C19" s="48" t="s">
         <v>46</v>
@@ -3079,7 +3125,7 @@
       </c>
       <c r="J19" s="138"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="32"/>
       <c r="C20" s="48" t="s">
         <v>47</v>
@@ -3100,7 +3146,7 @@
       </c>
       <c r="J20" s="138"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="32"/>
       <c r="C21" s="135"/>
       <c r="D21" s="136"/>
@@ -3111,7 +3157,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="138"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="32"/>
       <c r="C22" s="23" t="s">
         <v>109</v>
@@ -3124,7 +3170,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="138"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="32"/>
       <c r="C23" s="48" t="s">
         <v>48</v>
@@ -3146,7 +3192,7 @@
       </c>
       <c r="J23" s="140"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="32"/>
       <c r="C24" s="48" t="s">
         <v>49</v>
@@ -3167,7 +3213,7 @@
       </c>
       <c r="J24" s="140"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="32"/>
       <c r="C25" s="48" t="s">
         <v>13</v>
@@ -3188,7 +3234,7 @@
       </c>
       <c r="J25" s="138"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="32"/>
       <c r="C26" s="48" t="s">
         <v>50</v>
@@ -3209,7 +3255,7 @@
       </c>
       <c r="J26" s="138"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="32"/>
       <c r="C27" s="48" t="s">
         <v>51</v>
@@ -3231,7 +3277,7 @@
       </c>
       <c r="J27" s="138"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="32"/>
       <c r="C28" s="48" t="s">
         <v>52</v>
@@ -3253,7 +3299,7 @@
       </c>
       <c r="J28" s="138"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="32"/>
       <c r="C29" s="48" t="s">
         <v>53</v>
@@ -3274,7 +3320,7 @@
       </c>
       <c r="J29" s="138"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="32"/>
       <c r="C30" s="48" t="s">
         <v>56</v>
@@ -3283,19 +3329,19 @@
         <v>3</v>
       </c>
       <c r="E30" s="53">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="51" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="31" t="s">
-        <v>64</v>
+      <c r="I30" s="178" t="s">
+        <v>152</v>
       </c>
       <c r="J30" s="138"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="32"/>
       <c r="C31" s="48" t="s">
         <v>43</v>
@@ -3314,7 +3360,7 @@
       </c>
       <c r="J31" s="138"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="32"/>
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
@@ -3325,7 +3371,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="138"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="32"/>
       <c r="C33" s="23" t="s">
         <v>8</v>
@@ -3338,7 +3384,7 @@
       <c r="I33" s="30"/>
       <c r="J33" s="138"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="32"/>
       <c r="C34" s="48" t="s">
         <v>42</v>
@@ -3360,7 +3406,7 @@
       </c>
       <c r="J34" s="138"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="32"/>
       <c r="C35" s="48" t="s">
         <v>54</v>
@@ -3382,7 +3428,7 @@
       </c>
       <c r="J35" s="138"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="32"/>
       <c r="C36" s="48" t="s">
         <v>55</v>
@@ -3404,7 +3450,7 @@
       </c>
       <c r="J36" s="138"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="32"/>
       <c r="C37" s="48" t="s">
         <v>40</v>
@@ -3423,7 +3469,7 @@
       </c>
       <c r="J37" s="138"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="32"/>
       <c r="C38" s="48" t="s">
         <v>57</v>
@@ -3442,7 +3488,7 @@
       </c>
       <c r="J38" s="138"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="32"/>
       <c r="C39" s="48" t="s">
         <v>14</v>
@@ -3461,7 +3507,7 @@
       </c>
       <c r="J39" s="138"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="32"/>
       <c r="C40" s="48" t="s">
         <v>58</v>
@@ -3480,7 +3526,7 @@
       </c>
       <c r="J40" s="138"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="32"/>
       <c r="C41" s="48" t="s">
         <v>60</v>
@@ -3499,7 +3545,7 @@
       </c>
       <c r="J41" s="138"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="32"/>
       <c r="C42" s="48" t="s">
         <v>59</v>
@@ -3518,7 +3564,7 @@
       </c>
       <c r="J42" s="138"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B43" s="34"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -3529,7 +3575,7 @@
       <c r="I43" s="35"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10">
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
@@ -3539,7 +3585,7 @@
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -3549,49 +3595,49 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10">
       <c r="B46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10">
       <c r="B47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="B48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="B49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9">
       <c r="B50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -3601,7 +3647,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -3611,7 +3657,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -3621,7 +3667,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -3631,7 +3677,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3641,7 +3687,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -3651,7 +3697,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -3661,7 +3707,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -3671,7 +3717,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -3681,7 +3727,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -3691,7 +3737,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -3701,7 +3747,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -3711,7 +3757,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -3721,7 +3767,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -3741,8 +3787,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:P24"/>
@@ -3751,7 +3797,7 @@
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="54" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="54" customWidth="1"/>
@@ -3772,8 +3818,8 @@
     <col min="17" max="16384" width="10.7109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="17" thickBot="1"/>
+    <row r="2" spans="2:16">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -3790,7 +3836,7 @@
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
     </row>
-    <row r="3" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="38" customFormat="1">
       <c r="B3" s="37"/>
       <c r="C3" s="125" t="s">
         <v>101</v>
@@ -3821,7 +3867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16">
       <c r="B4" s="57"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
@@ -3838,7 +3884,7 @@
       <c r="O4" s="127"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="17" thickBot="1">
       <c r="B5" s="57"/>
       <c r="C5" s="46" t="s">
         <v>95</v>
@@ -3857,7 +3903,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="83"/>
     </row>
-    <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="17" thickBot="1">
       <c r="B6" s="57"/>
       <c r="C6" s="84" t="s">
         <v>32</v>
@@ -3882,7 +3928,7 @@
       <c r="M6" s="88"/>
       <c r="P6" s="83"/>
     </row>
-    <row r="7" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="17" thickBot="1">
       <c r="B7" s="57"/>
       <c r="C7" s="89" t="s">
         <v>141</v>
@@ -3907,7 +3953,7 @@
       <c r="M7" s="88"/>
       <c r="P7" s="83"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16">
       <c r="B8" s="57"/>
       <c r="C8" s="93"/>
       <c r="D8" s="93"/>
@@ -3922,7 +3968,7 @@
       <c r="M8" s="91"/>
       <c r="P8" s="83"/>
     </row>
-    <row r="9" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="17" thickBot="1">
       <c r="B9" s="57"/>
       <c r="C9" s="46" t="s">
         <v>8</v>
@@ -3940,7 +3986,7 @@
       <c r="N9" s="94"/>
       <c r="P9" s="83"/>
     </row>
-    <row r="10" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="17" thickBot="1">
       <c r="B10" s="57"/>
       <c r="C10" s="89" t="s">
         <v>17</v>
@@ -3967,7 +4013,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="17" thickBot="1">
       <c r="B11" s="57"/>
       <c r="C11" s="95" t="s">
         <v>1</v>
@@ -3995,7 +4041,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="17" thickBot="1">
       <c r="B12" s="57"/>
       <c r="C12" s="97" t="s">
         <v>6</v>
@@ -4023,7 +4069,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16">
       <c r="B13" s="57"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -4039,7 +4085,7 @@
       <c r="N13" s="94"/>
       <c r="P13" s="83"/>
     </row>
-    <row r="14" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="17" thickBot="1">
       <c r="B14" s="57"/>
       <c r="C14" s="21" t="s">
         <v>102</v>
@@ -4057,7 +4103,7 @@
       <c r="N14" s="94"/>
       <c r="P14" s="142"/>
     </row>
-    <row r="15" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="17" thickBot="1">
       <c r="B15" s="57"/>
       <c r="C15" s="131" t="s">
         <v>104</v>
@@ -4085,7 +4131,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="17" thickBot="1">
       <c r="B16" s="57"/>
       <c r="C16" s="131" t="s">
         <v>105</v>
@@ -4111,7 +4157,7 @@
       <c r="N16" s="94"/>
       <c r="P16" s="166"/>
     </row>
-    <row r="17" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="17" thickBot="1">
       <c r="B17" s="57"/>
       <c r="C17" s="147" t="s">
         <v>111</v>
@@ -4139,7 +4185,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="17" thickBot="1">
       <c r="B18" s="57"/>
       <c r="C18" s="144" t="s">
         <v>106</v>
@@ -4164,7 +4210,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="17" thickBot="1">
       <c r="B19" s="57"/>
       <c r="C19" s="131" t="s">
         <v>107</v>
@@ -4188,7 +4234,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="17" thickBot="1">
       <c r="B20" s="57"/>
       <c r="C20" s="143" t="s">
         <v>68</v>
@@ -4213,7 +4259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="17" thickBot="1">
       <c r="B21" s="57"/>
       <c r="C21" s="131" t="s">
         <v>68</v>
@@ -4238,7 +4284,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="17" thickBot="1">
       <c r="B22" s="57"/>
       <c r="C22" s="131" t="s">
         <v>68</v>
@@ -4266,7 +4312,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="17" thickBot="1">
       <c r="B23" s="57"/>
       <c r="C23" s="131" t="s">
         <v>108</v>
@@ -4290,7 +4336,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="17" thickBot="1">
       <c r="B24" s="57"/>
       <c r="C24" s="154" t="s">
         <v>124</v>
@@ -4317,8 +4363,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P18" r:id="rId1" location="issuecomment-18286997"/>
-    <hyperlink ref="P11" r:id="rId2"/>
+    <hyperlink ref="P18" r:id="rId1" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="P11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4326,8 +4372,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J20"/>
@@ -4336,7 +4382,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="59" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="59" customWidth="1"/>
@@ -4349,8 +4395,8 @@
     <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="61"/>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -4361,7 +4407,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="62"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="64"/>
       <c r="C3" s="65" t="s">
         <v>24</v>
@@ -4374,7 +4420,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="64"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -4385,7 +4431,7 @@
       <c r="I4" s="68"/>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="69"/>
       <c r="C5" s="70" t="s">
         <v>33</v>
@@ -4412,7 +4458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -4423,7 +4469,7 @@
       <c r="I6" s="66"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="17">
       <c r="B7" s="64"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72" t="s">
@@ -4446,7 +4492,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="64"/>
       <c r="C8" s="150" t="s">
         <v>1</v>
@@ -4459,7 +4505,7 @@
       <c r="I8" s="76"/>
       <c r="J8" s="72"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="64"/>
       <c r="C9" s="151" t="s">
         <v>6</v>
@@ -4472,7 +4518,7 @@
       <c r="I9" s="76"/>
       <c r="J9" s="72"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="64"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72" t="s">
@@ -4493,7 +4539,7 @@
       </c>
       <c r="J10" s="77"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="64"/>
       <c r="C11" s="73" t="s">
         <v>77</v>
@@ -4506,7 +4552,7 @@
       <c r="I11" s="68"/>
       <c r="J11" s="72"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="64"/>
       <c r="C12" s="150" t="s">
         <v>140</v>
@@ -4519,7 +4565,7 @@
       <c r="I12" s="68"/>
       <c r="J12" s="72"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="64"/>
       <c r="C13" s="150" t="s">
         <v>141</v>
@@ -4532,7 +4578,7 @@
       <c r="I13" s="68"/>
       <c r="J13" s="72"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="64"/>
       <c r="C14" s="73"/>
       <c r="D14" s="72"/>
@@ -4543,7 +4589,7 @@
       <c r="I14" s="68"/>
       <c r="J14" s="72"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="64"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72" t="s">
@@ -4564,7 +4610,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="64"/>
       <c r="C16" s="150" t="s">
         <v>138</v>
@@ -4577,7 +4623,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="72"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="64"/>
       <c r="C17" s="150" t="s">
         <v>139</v>
@@ -4590,7 +4636,7 @@
       <c r="I17" s="78"/>
       <c r="J17" s="72"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="64"/>
       <c r="C18" s="72"/>
       <c r="D18" s="67"/>
@@ -4601,7 +4647,7 @@
       <c r="I18" s="78"/>
       <c r="J18" s="72"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="152"/>
       <c r="C19" s="72"/>
       <c r="D19" s="67" t="s">
@@ -4620,7 +4666,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="152" t="s">
         <v>120</v>
       </c>
@@ -4639,7 +4685,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1"/>
+    <hyperlink ref="J19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4650,22 +4696,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N54"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="157" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" style="157" customWidth="1"/>
     <col min="3" max="16384" width="10.7109375" style="157"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="17" thickBot="1"/>
+    <row r="2" spans="2:14">
       <c r="B2" s="159"/>
       <c r="C2" s="160"/>
       <c r="D2" s="160"/>
@@ -4680,7 +4726,7 @@
       <c r="M2" s="160"/>
       <c r="N2" s="160"/>
     </row>
-    <row r="3" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" s="38" customFormat="1">
       <c r="B3" s="132"/>
       <c r="C3" s="24" t="s">
         <v>0</v>
@@ -4699,7 +4745,7 @@
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14">
       <c r="B4" s="161"/>
       <c r="C4" s="162"/>
       <c r="D4" s="162"/>
@@ -4714,7 +4760,7 @@
       <c r="M4" s="162"/>
       <c r="N4" s="162"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14">
       <c r="B5" s="161"/>
       <c r="C5" s="162"/>
       <c r="D5" s="162"/>
@@ -4729,7 +4775,7 @@
       <c r="M5" s="162"/>
       <c r="N5" s="162"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14">
       <c r="B6" s="161"/>
       <c r="C6" s="162" t="s">
         <v>63</v>
@@ -4746,7 +4792,7 @@
       <c r="M6" s="162"/>
       <c r="N6" s="162"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14">
       <c r="B7" s="161"/>
       <c r="C7" s="162"/>
       <c r="D7" s="162"/>
@@ -4761,7 +4807,7 @@
       <c r="M7" s="162"/>
       <c r="N7" s="162"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14">
       <c r="B8" s="161"/>
       <c r="C8" s="162"/>
       <c r="D8" s="162"/>
@@ -4776,7 +4822,7 @@
       <c r="M8" s="162"/>
       <c r="N8" s="162"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14">
       <c r="B9" s="161"/>
       <c r="C9" s="162"/>
       <c r="D9" s="162"/>
@@ -4791,7 +4837,7 @@
       <c r="M9" s="162"/>
       <c r="N9" s="162"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14">
       <c r="B10" s="161"/>
       <c r="C10" s="162"/>
       <c r="D10" s="162"/>
@@ -4806,7 +4852,7 @@
       <c r="M10" s="162"/>
       <c r="N10" s="162"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14">
       <c r="B11" s="161"/>
       <c r="C11" s="162"/>
       <c r="D11" s="162"/>
@@ -4821,7 +4867,7 @@
       <c r="M11" s="162"/>
       <c r="N11" s="162"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14">
       <c r="B12" s="161"/>
       <c r="C12" s="162"/>
       <c r="D12" s="162">
@@ -4840,7 +4886,7 @@
       <c r="M12" s="162"/>
       <c r="N12" s="162"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14">
       <c r="B13" s="161"/>
       <c r="C13" s="162"/>
       <c r="D13" s="162">
@@ -4859,7 +4905,7 @@
       <c r="M13" s="162"/>
       <c r="N13" s="162"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14">
       <c r="B14" s="161"/>
       <c r="C14" s="162"/>
       <c r="D14" s="162">
@@ -4878,7 +4924,7 @@
       <c r="M14" s="162"/>
       <c r="N14" s="162"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14">
       <c r="B15" s="161"/>
       <c r="C15" s="162"/>
       <c r="D15" s="162"/>
@@ -4893,7 +4939,7 @@
       <c r="M15" s="162"/>
       <c r="N15" s="162"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14">
       <c r="B16" s="161"/>
       <c r="C16" s="162"/>
       <c r="D16" s="162"/>
@@ -4908,7 +4954,7 @@
       <c r="M16" s="162"/>
       <c r="N16" s="162"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17" s="161"/>
       <c r="C17" s="162"/>
       <c r="D17" s="162"/>
@@ -4923,7 +4969,7 @@
       <c r="M17" s="162"/>
       <c r="N17" s="162"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18" s="161"/>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
@@ -4938,7 +4984,7 @@
       <c r="M18" s="162"/>
       <c r="N18" s="162"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19" s="161"/>
       <c r="C19" s="162"/>
       <c r="D19" s="162"/>
@@ -4953,7 +4999,7 @@
       <c r="M19" s="162"/>
       <c r="N19" s="162"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="B20" s="161"/>
       <c r="C20" s="162"/>
       <c r="D20" s="162"/>
@@ -4968,7 +5014,7 @@
       <c r="M20" s="162"/>
       <c r="N20" s="162"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21" s="161"/>
       <c r="C21" s="162"/>
       <c r="D21" s="162"/>
@@ -4983,7 +5029,7 @@
       <c r="M21" s="162"/>
       <c r="N21" s="162"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="B22" s="161"/>
       <c r="C22" s="162"/>
       <c r="D22" s="162"/>
@@ -4998,7 +5044,7 @@
       <c r="M22" s="162"/>
       <c r="N22" s="162"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23" s="161"/>
       <c r="C23" s="162"/>
       <c r="D23" s="162"/>
@@ -5013,7 +5059,7 @@
       <c r="M23" s="162"/>
       <c r="N23" s="162"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24" s="161"/>
       <c r="C24" s="162"/>
       <c r="D24" s="162"/>
@@ -5028,7 +5074,7 @@
       <c r="M24" s="162"/>
       <c r="N24" s="162"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25" s="161"/>
       <c r="C25" s="162"/>
       <c r="D25" s="162"/>
@@ -5043,7 +5089,7 @@
       <c r="M25" s="162"/>
       <c r="N25" s="162"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26" s="161"/>
       <c r="C26" s="162"/>
       <c r="D26" s="162"/>
@@ -5058,7 +5104,7 @@
       <c r="M26" s="162"/>
       <c r="N26" s="162"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="161"/>
       <c r="C27" s="162"/>
       <c r="D27" s="162"/>
@@ -5073,7 +5119,7 @@
       <c r="M27" s="162"/>
       <c r="N27" s="162"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28" s="161"/>
       <c r="C28" s="162"/>
       <c r="D28" s="162"/>
@@ -5088,7 +5134,7 @@
       <c r="M28" s="162"/>
       <c r="N28" s="162"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29" s="161"/>
       <c r="C29" s="162"/>
       <c r="D29" s="162"/>
@@ -5103,7 +5149,7 @@
       <c r="M29" s="162"/>
       <c r="N29" s="162"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30" s="161"/>
       <c r="C30" s="162"/>
       <c r="D30" s="162"/>
@@ -5118,7 +5164,7 @@
       <c r="M30" s="162"/>
       <c r="N30" s="162"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14">
       <c r="B31" s="161"/>
       <c r="C31" s="162"/>
       <c r="D31" s="162"/>
@@ -5133,7 +5179,7 @@
       <c r="M31" s="162"/>
       <c r="N31" s="162"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14">
       <c r="B32" s="161"/>
       <c r="C32" s="162" t="s">
         <v>129</v>
@@ -5154,7 +5200,7 @@
       <c r="M32" s="162"/>
       <c r="N32" s="162"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14">
       <c r="B33" s="161"/>
       <c r="C33" s="165" t="s">
         <v>145</v>
@@ -5175,7 +5221,7 @@
       <c r="M33" s="162"/>
       <c r="N33" s="162"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14">
       <c r="B34" s="161"/>
       <c r="C34" s="162"/>
       <c r="D34" s="162"/>
@@ -5190,7 +5236,7 @@
       <c r="M34" s="162"/>
       <c r="N34" s="162"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14">
       <c r="B35" s="161"/>
       <c r="C35" s="162"/>
       <c r="D35" s="162"/>
@@ -5205,7 +5251,7 @@
       <c r="M35" s="162"/>
       <c r="N35" s="162"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14">
       <c r="B36" s="161"/>
       <c r="C36" s="162"/>
       <c r="D36" s="162"/>
@@ -5220,7 +5266,7 @@
       <c r="M36" s="162"/>
       <c r="N36" s="162"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14">
       <c r="B37" s="161"/>
       <c r="C37" s="162"/>
       <c r="D37" s="162"/>
@@ -5235,7 +5281,7 @@
       <c r="M37" s="162"/>
       <c r="N37" s="162"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14">
       <c r="B38" s="161"/>
       <c r="C38" s="162"/>
       <c r="D38" s="162"/>
@@ -5250,7 +5296,7 @@
       <c r="M38" s="162"/>
       <c r="N38" s="162"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14">
       <c r="B39" s="161"/>
       <c r="C39" s="162"/>
       <c r="D39" s="162"/>
@@ -5265,7 +5311,7 @@
       <c r="M39" s="162"/>
       <c r="N39" s="162"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14">
       <c r="B40" s="161"/>
       <c r="C40" s="162"/>
       <c r="D40" s="162"/>
@@ -5280,7 +5326,7 @@
       <c r="M40" s="162"/>
       <c r="N40" s="162"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14">
       <c r="B41" s="161"/>
       <c r="C41" s="162"/>
       <c r="D41" s="162"/>
@@ -5295,7 +5341,7 @@
       <c r="M41" s="162"/>
       <c r="N41" s="162"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14">
       <c r="B42" s="161"/>
       <c r="C42" s="162"/>
       <c r="D42" s="162"/>
@@ -5310,7 +5356,7 @@
       <c r="M42" s="162"/>
       <c r="N42" s="162"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14">
       <c r="B43" s="161"/>
       <c r="C43" s="162"/>
       <c r="D43" s="162"/>
@@ -5325,7 +5371,7 @@
       <c r="M43" s="162"/>
       <c r="N43" s="162"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14">
       <c r="B44" s="161"/>
       <c r="C44" s="162" t="s">
         <v>114</v>
@@ -5342,7 +5388,7 @@
       <c r="M44" s="162"/>
       <c r="N44" s="162"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14">
       <c r="B45" s="161"/>
       <c r="C45" s="162" t="s">
         <v>135</v>
@@ -5359,7 +5405,7 @@
       <c r="M45" s="162"/>
       <c r="N45" s="162"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14">
       <c r="B46" s="161"/>
       <c r="C46" s="162"/>
       <c r="D46" s="162"/>
@@ -5374,7 +5420,7 @@
       <c r="M46" s="162"/>
       <c r="N46" s="162"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14">
       <c r="B47" s="161"/>
       <c r="C47" s="162"/>
       <c r="D47" s="162"/>
@@ -5389,7 +5435,7 @@
       <c r="M47" s="162"/>
       <c r="N47" s="162"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14">
       <c r="B48" s="161"/>
       <c r="C48" s="162"/>
       <c r="D48" s="162"/>
@@ -5404,7 +5450,7 @@
       <c r="M48" s="162"/>
       <c r="N48" s="162"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14">
       <c r="B49" s="161"/>
       <c r="C49" s="162"/>
       <c r="D49" s="162"/>
@@ -5419,7 +5465,7 @@
       <c r="M49" s="162"/>
       <c r="N49" s="162"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14">
       <c r="B50" s="161"/>
       <c r="C50" s="162"/>
       <c r="D50" s="162">
@@ -5438,7 +5484,7 @@
       <c r="M50" s="162"/>
       <c r="N50" s="162"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="B51" s="161"/>
       <c r="C51" s="162"/>
       <c r="D51" s="162">
@@ -5457,7 +5503,7 @@
       <c r="M51" s="162"/>
       <c r="N51" s="162"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52" s="161"/>
       <c r="C52" s="162"/>
       <c r="D52" s="162"/>
@@ -5472,7 +5518,7 @@
       <c r="M52" s="162"/>
       <c r="N52" s="162"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14">
       <c r="B53" s="161"/>
       <c r="C53" s="162"/>
       <c r="D53" s="162"/>
@@ -5487,7 +5533,7 @@
       <c r="M53" s="162"/>
       <c r="N53" s="162"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54" s="161"/>
       <c r="C54" s="162"/>
       <c r="D54" s="162"/>
